--- a/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{913CFB5A-2F8B-4B18-9A25-C4333144CE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82950F3F-870C-4347-82DC-D839AF8508A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B4B2DA8-21F3-45A3-A58D-7347B4E6CFCE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64711E7B-756A-49C4-904F-0D955BD702F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -83,625 +83,637 @@
     <t>2,02%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>De 8 a 14 días al mes</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>De 8 a 14 días al mes</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1116,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00D156-7320-49C5-93CC-C71A575382B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A07170-3C12-495A-A41B-F1CAECCEA609}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1500,10 +1512,10 @@
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>36</v>
@@ -1512,13 +1524,13 @@
         <v>25125</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -1527,13 +1539,13 @@
         <v>33632</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,13 +1560,13 @@
         <v>12767</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -1563,13 +1575,13 @@
         <v>30052</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -1581,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>67</v>
@@ -1811,7 +1823,7 @@
         <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1820,13 +1832,13 @@
         <v>49705</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M15" s="7">
         <v>92</v>
@@ -1874,10 +1886,10 @@
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>526</v>
@@ -1886,13 +1898,13 @@
         <v>397340</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,13 +1919,13 @@
         <v>853148</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>994</v>
@@ -1922,28 +1934,28 @@
         <v>714439</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>1772</v>
       </c>
       <c r="N17" s="7">
-        <v>1567587</v>
+        <v>1567588</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,7 +1997,7 @@
         <v>2474</v>
       </c>
       <c r="N18" s="7">
-        <v>2093898</v>
+        <v>2093899</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1999,7 +2011,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2011,13 +2023,13 @@
         <v>8765</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -2026,13 +2038,13 @@
         <v>34909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -2041,13 +2053,13 @@
         <v>43675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2074,13 @@
         <v>22909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -2077,13 +2089,13 @@
         <v>43756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -2092,13 +2104,13 @@
         <v>66665</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2125,13 @@
         <v>153014</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>317</v>
@@ -2128,13 +2140,13 @@
         <v>339703</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>462</v>
@@ -2143,13 +2155,13 @@
         <v>492717</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2176,13 @@
         <v>542164</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>617</v>
@@ -2179,13 +2191,13 @@
         <v>453668</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>1115</v>
@@ -2194,13 +2206,13 @@
         <v>995832</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,7 +2268,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2268,7 +2280,7 @@
         <v>6341</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>157</v>
@@ -2298,13 +2310,13 @@
         <v>62888</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2331,13 @@
         <v>32251</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -2334,13 +2346,13 @@
         <v>73676</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -2349,13 +2361,13 @@
         <v>105927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2382,13 @@
         <v>146989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>397</v>
@@ -2385,13 +2397,13 @@
         <v>299158</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>549</v>
@@ -2400,13 +2412,13 @@
         <v>446148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2433,13 @@
         <v>776018</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>978</v>
@@ -2436,13 +2448,13 @@
         <v>710935</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>1787</v>
@@ -2451,13 +2463,13 @@
         <v>1486953</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2537,13 @@
         <v>38855</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>229</v>
@@ -2540,13 +2552,13 @@
         <v>168246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>271</v>
@@ -2555,13 +2567,13 @@
         <v>207101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2588,13 @@
         <v>86055</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>311</v>
@@ -2591,13 +2603,13 @@
         <v>202061</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>401</v>
@@ -2606,13 +2618,13 @@
         <v>288116</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2639,13 @@
         <v>548378</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>1389</v>
@@ -2642,13 +2654,13 @@
         <v>1051167</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>1941</v>
@@ -2657,13 +2669,13 @@
         <v>1599544</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2690,13 @@
         <v>2699497</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>3411</v>
@@ -2693,13 +2705,13 @@
         <v>2371206</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>6088</v>
@@ -2708,13 +2720,13 @@
         <v>5070703</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2782,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82950F3F-870C-4347-82DC-D839AF8508A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2824320-BD39-4CD2-A1D5-03FDCDEC1A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64711E7B-756A-49C4-904F-0D955BD702F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17DE0AD4-0100-4A2D-B6F0-9682A5001971}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>15 ó más días al mes</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -296,7 +296,7 @@
     <t>75,98%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -398,7 +398,7 @@
     <t>77,11%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -1128,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A07170-3C12-495A-A41B-F1CAECCEA609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D81118-7151-43F1-B02A-7A72D061F752}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2824320-BD39-4CD2-A1D5-03FDCDEC1A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB0949A-BA62-4CD7-A846-D9CED9FABC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17DE0AD4-0100-4A2D-B6F0-9682A5001971}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A6FFFF4-1D2B-44A9-8598-9767150DBF85}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="223">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>4,65%</t>
@@ -92,10 +92,10 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>De 8 a 14 días al mes</t>
@@ -104,28 +104,28 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>De 1 a 7 días al mes</t>
@@ -134,586 +134,574 @@
     <t>13,18%</t>
   </si>
   <si>
-    <t>7,61%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>26,56%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D81118-7151-43F1-B02A-7A72D061F752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324FFD5F-26EA-4F39-8A94-DF7EDECC4153}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1512,10 +1500,10 @@
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>36</v>
@@ -1524,13 +1512,13 @@
         <v>25125</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -1539,13 +1527,13 @@
         <v>33632</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,13 +1548,13 @@
         <v>12767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -1575,13 +1563,13 @@
         <v>30052</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -1593,7 +1581,7 @@
         <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>67</v>
@@ -1823,7 +1811,7 @@
         <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1832,13 +1820,13 @@
         <v>49705</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M15" s="7">
         <v>92</v>
@@ -1886,10 +1874,10 @@
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>526</v>
@@ -1898,13 +1886,13 @@
         <v>397340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1907,13 @@
         <v>853148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>994</v>
@@ -1934,28 +1922,28 @@
         <v>714439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>1772</v>
       </c>
       <c r="N17" s="7">
-        <v>1567588</v>
+        <v>1567587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,7 +1985,7 @@
         <v>2474</v>
       </c>
       <c r="N18" s="7">
-        <v>2093899</v>
+        <v>2093898</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2011,7 +1999,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2023,13 +2011,13 @@
         <v>8765</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -2038,13 +2026,13 @@
         <v>34909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -2053,13 +2041,13 @@
         <v>43675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2062,13 @@
         <v>22909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -2089,13 +2077,13 @@
         <v>43756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -2104,13 +2092,13 @@
         <v>66665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2113,13 @@
         <v>153014</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>317</v>
@@ -2140,13 +2128,13 @@
         <v>339703</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>462</v>
@@ -2155,13 +2143,13 @@
         <v>492717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2164,13 @@
         <v>542164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>617</v>
@@ -2191,13 +2179,13 @@
         <v>453668</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>1115</v>
@@ -2206,13 +2194,13 @@
         <v>995832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,7 +2256,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2280,7 +2268,7 @@
         <v>6341</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>157</v>
@@ -2310,13 +2298,13 @@
         <v>62888</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2319,13 @@
         <v>32251</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -2346,13 +2334,13 @@
         <v>73676</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -2361,13 +2349,13 @@
         <v>105927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2370,13 @@
         <v>146989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>397</v>
@@ -2397,13 +2385,13 @@
         <v>299158</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>549</v>
@@ -2412,13 +2400,13 @@
         <v>446148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2421,13 @@
         <v>776018</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>978</v>
@@ -2448,13 +2436,13 @@
         <v>710935</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>1787</v>
@@ -2463,13 +2451,13 @@
         <v>1486953</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2525,13 @@
         <v>38855</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>229</v>
@@ -2552,13 +2540,13 @@
         <v>168246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>271</v>
@@ -2567,13 +2555,13 @@
         <v>207101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2576,13 @@
         <v>86055</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>311</v>
@@ -2603,13 +2591,13 @@
         <v>202061</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="M30" s="7">
         <v>401</v>
@@ -2618,13 +2606,13 @@
         <v>288116</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2627,13 @@
         <v>548378</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>1389</v>
@@ -2654,13 +2642,13 @@
         <v>1051167</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>1941</v>
@@ -2669,13 +2657,13 @@
         <v>1599544</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2678,13 @@
         <v>2699497</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>3411</v>
@@ -2705,13 +2693,13 @@
         <v>2371206</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>6088</v>
@@ -2720,13 +2708,13 @@
         <v>5070703</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2770,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB0949A-BA62-4CD7-A846-D9CED9FABC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBB9114-5591-447D-A645-3CCDD8BB1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A6FFFF4-1D2B-44A9-8598-9767150DBF85}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46B8FED5-60CA-41EC-B555-D08471B34C18}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -65,643 +65,559 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>15 ó más días al mes</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>De 8 a 14 días al mes</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>De 8 a 14 días al mes</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>3,73%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>73,29%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1116,8 +1032,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324FFD5F-26EA-4F39-8A94-DF7EDECC4153}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FEA21F-A962-4140-8F94-0CF6F43BE50B}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1234,10 +1150,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8271</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1249,10 +1165,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>2630</v>
+        <v>25454</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1264,10 +1180,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>2630</v>
+        <v>33725</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1285,10 +1201,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>3137</v>
+        <v>15399</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1300,10 +1216,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>4872</v>
+        <v>32829</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1315,10 +1231,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="N5" s="7">
-        <v>8008</v>
+        <v>48227</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1336,10 +1252,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
-        <v>13202</v>
+        <v>93417</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1351,10 +1267,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="I6" s="7">
-        <v>27228</v>
+        <v>159274</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1366,10 +1282,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="N6" s="7">
-        <v>40430</v>
+        <v>252691</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1387,10 +1303,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>96</v>
+        <v>592</v>
       </c>
       <c r="D7" s="7">
-        <v>83848</v>
+        <v>515426</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1402,10 +1318,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>168</v>
+        <v>822</v>
       </c>
       <c r="I7" s="7">
-        <v>95277</v>
+        <v>456613</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1417,10 +1333,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>264</v>
+        <v>1414</v>
       </c>
       <c r="N7" s="7">
-        <v>179125</v>
+        <v>972039</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1438,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>726</v>
       </c>
       <c r="D8" s="7">
-        <v>100186</v>
+        <v>632513</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1453,10 +1369,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>241</v>
+        <v>1235</v>
       </c>
       <c r="I8" s="7">
-        <v>130007</v>
+        <v>674170</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1468,10 +1384,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>357</v>
+        <v>1961</v>
       </c>
       <c r="N8" s="7">
-        <v>230194</v>
+        <v>1306683</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1491,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>8506</v>
+        <v>14768</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1506,10 +1422,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7">
-        <v>25125</v>
+        <v>45187</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1521,19 +1437,19 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="N9" s="7">
-        <v>33632</v>
+        <v>59955</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,49 +1458,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>12767</v>
+        <v>14814</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>73</v>
+      </c>
+      <c r="I10" s="7">
+        <v>46503</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>62</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30052</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>92</v>
+      </c>
+      <c r="N10" s="7">
+        <v>61317</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="7">
-        <v>76</v>
-      </c>
-      <c r="N10" s="7">
-        <v>42819</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,49 +1509,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7">
-        <v>82979</v>
+        <v>152797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>242</v>
+        <v>377</v>
       </c>
       <c r="I11" s="7">
-        <v>139931</v>
+        <v>227591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>332</v>
+        <v>526</v>
       </c>
       <c r="N11" s="7">
-        <v>222910</v>
+        <v>380388</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,49 +1560,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>496</v>
+        <v>778</v>
       </c>
       <c r="D12" s="7">
-        <v>444320</v>
+        <v>1006955</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>654</v>
+        <v>994</v>
       </c>
       <c r="I12" s="7">
-        <v>396887</v>
+        <v>637751</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>1150</v>
+        <v>1772</v>
       </c>
       <c r="N12" s="7">
-        <v>841206</v>
+        <v>1644707</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>610</v>
+        <v>960</v>
       </c>
       <c r="D13" s="7">
-        <v>548572</v>
+        <v>1189334</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1710,10 +1626,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I13" s="7">
-        <v>591996</v>
+        <v>957032</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1725,10 +1641,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1604</v>
+        <v>2474</v>
       </c>
       <c r="N13" s="7">
-        <v>1140567</v>
+        <v>2146366</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1742,55 +1658,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>15242</v>
+        <v>8290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I14" s="7">
-        <v>49033</v>
+        <v>31772</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="N14" s="7">
-        <v>64276</v>
+        <v>40062</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,49 +1715,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7">
-        <v>14990</v>
+        <v>22411</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I15" s="7">
-        <v>49705</v>
+        <v>41137</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="N15" s="7">
-        <v>64696</v>
+        <v>63548</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,49 +1766,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D16" s="7">
-        <v>152194</v>
+        <v>145793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="I16" s="7">
-        <v>245146</v>
+        <v>420586</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="N16" s="7">
-        <v>397340</v>
+        <v>566380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,49 +1817,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>778</v>
+        <v>498</v>
       </c>
       <c r="D17" s="7">
-        <v>853148</v>
+        <v>526420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>994</v>
+        <v>617</v>
       </c>
       <c r="I17" s="7">
-        <v>714439</v>
+        <v>437734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>1772</v>
+        <v>1115</v>
       </c>
       <c r="N17" s="7">
-        <v>1567587</v>
+        <v>964155</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>960</v>
+        <v>674</v>
       </c>
       <c r="D18" s="7">
-        <v>1035575</v>
+        <v>702914</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1967,10 +1883,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>1514</v>
+        <v>1043</v>
       </c>
       <c r="I18" s="7">
-        <v>1058324</v>
+        <v>931230</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1982,10 +1898,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>2474</v>
+        <v>1717</v>
       </c>
       <c r="N18" s="7">
-        <v>2093898</v>
+        <v>1634144</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1999,55 +1915,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>8765</v>
+        <v>6064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>34909</v>
+        <v>49421</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="N19" s="7">
-        <v>43675</v>
+        <v>55485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,49 +1972,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7">
-        <v>22909</v>
+        <v>32156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="I20" s="7">
-        <v>43756</v>
+        <v>68174</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="N20" s="7">
-        <v>66665</v>
+        <v>100330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,49 +2023,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
+        <v>152</v>
+      </c>
+      <c r="D21" s="7">
+        <v>145574</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="7">
+        <v>397</v>
+      </c>
+      <c r="I21" s="7">
+        <v>332743</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="7">
-        <v>153014</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="7">
-        <v>317</v>
-      </c>
-      <c r="I21" s="7">
-        <v>339703</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>462</v>
+        <v>549</v>
       </c>
       <c r="N21" s="7">
-        <v>492717</v>
+        <v>478317</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,49 +2074,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>498</v>
+        <v>809</v>
       </c>
       <c r="D22" s="7">
-        <v>542164</v>
+        <v>739513</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>617</v>
+        <v>978</v>
       </c>
       <c r="I22" s="7">
-        <v>453668</v>
+        <v>635578</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>1115</v>
+        <v>1787</v>
       </c>
       <c r="N22" s="7">
-        <v>995832</v>
+        <v>1375090</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,10 +2125,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>674</v>
+        <v>1001</v>
       </c>
       <c r="D23" s="7">
-        <v>726852</v>
+        <v>923307</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2224,10 +2140,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>1043</v>
+        <v>1548</v>
       </c>
       <c r="I23" s="7">
-        <v>872036</v>
+        <v>1085915</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2239,10 +2155,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1717</v>
+        <v>2549</v>
       </c>
       <c r="N23" s="7">
-        <v>1598888</v>
+        <v>2009222</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2256,55 +2172,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D24" s="7">
-        <v>6341</v>
+        <v>37393</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="I24" s="7">
-        <v>56547</v>
+        <v>151834</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="N24" s="7">
-        <v>62888</v>
+        <v>189227</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,49 +2229,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D25" s="7">
-        <v>32251</v>
+        <v>84779</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="I25" s="7">
-        <v>73676</v>
+        <v>188642</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
-        <v>141</v>
+        <v>401</v>
       </c>
       <c r="N25" s="7">
-        <v>105927</v>
+        <v>273422</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,49 +2280,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>152</v>
+        <v>552</v>
       </c>
       <c r="D26" s="7">
-        <v>146989</v>
+        <v>537582</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
-        <v>397</v>
+        <v>1389</v>
       </c>
       <c r="I26" s="7">
-        <v>299158</v>
+        <v>1140195</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
-        <v>549</v>
+        <v>1941</v>
       </c>
       <c r="N26" s="7">
-        <v>446148</v>
+        <v>1677777</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,49 +2331,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>809</v>
+        <v>2677</v>
       </c>
       <c r="D27" s="7">
-        <v>776018</v>
+        <v>2788314</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
-        <v>978</v>
+        <v>3411</v>
       </c>
       <c r="I27" s="7">
-        <v>710935</v>
+        <v>2167677</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
-        <v>1787</v>
+        <v>6088</v>
       </c>
       <c r="N27" s="7">
-        <v>1486953</v>
+        <v>4955991</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1001</v>
+        <v>3361</v>
       </c>
       <c r="D28" s="7">
-        <v>961599</v>
+        <v>3448068</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2481,10 +2397,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1548</v>
+        <v>5340</v>
       </c>
       <c r="I28" s="7">
-        <v>1140317</v>
+        <v>3648348</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2496,10 +2412,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>2549</v>
+        <v>8701</v>
       </c>
       <c r="N28" s="7">
-        <v>2101916</v>
+        <v>7096416</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2512,273 +2428,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>42</v>
-      </c>
-      <c r="D29" s="7">
-        <v>38855</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H29" s="7">
-        <v>229</v>
-      </c>
-      <c r="I29" s="7">
-        <v>168246</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M29" s="7">
-        <v>271</v>
-      </c>
-      <c r="N29" s="7">
-        <v>207101</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="A29" t="s">
         <v>194</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>90</v>
-      </c>
-      <c r="D30" s="7">
-        <v>86055</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="7">
-        <v>311</v>
-      </c>
-      <c r="I30" s="7">
-        <v>202061</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="7">
-        <v>401</v>
-      </c>
-      <c r="N30" s="7">
-        <v>288116</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>552</v>
-      </c>
-      <c r="D31" s="7">
-        <v>548378</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1389</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1051167</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1941</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1599544</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2677</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2699497</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3411</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2371206</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M32" s="7">
-        <v>6088</v>
-      </c>
-      <c r="N32" s="7">
-        <v>5070703</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3361</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3372784</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5340</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3792680</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8701</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7165464</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>222</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
